--- a/기타/FrontStudy.xlsx
+++ b/기타/FrontStudy.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ddd095a1e3fa6c8e/Desktop/WebLocal/기타/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LeeChaeYun\Desktop\Git\WebLocal\기타\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="115" documentId="8_{5FC9B2BC-83DB-4C3D-8E04-CC2157A7348D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9CE90568-C5A2-4785-B482-B676D706DB17}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD31FB5-85D6-473B-9318-9B4CBA620535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{398A4277-38D9-496F-8D1A-C5B77BFD2B25}"/>
+    <workbookView xWindow="7785" yWindow="0" windowWidth="19440" windowHeight="11385" xr2:uid="{398A4277-38D9-496F-8D1A-C5B77BFD2B25}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -55,7 +52,16 @@
   <commentList>
     <comment ref="C13" authorId="0" shapeId="0" xr:uid="{F0701F02-CDBA-4469-9664-9FA96948C519}">
       <text>
-        <t>[스레드 댓글]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
 댓글:
     visible
@@ -63,11 +69,21 @@
 Scroll
 Auto
 Inherit</t>
+        </r>
       </text>
     </comment>
     <comment ref="C14" authorId="1" shapeId="0" xr:uid="{8F91239F-10D3-4D5B-B807-41B2E5CD9DFC}">
       <text>
-        <t>[스레드 댓글]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
 댓글:
     Inline
@@ -87,31 +103,61 @@
 &lt;span&gt;
 &lt;a&gt;
 &lt;img&gt;</t>
+        </r>
       </text>
     </comment>
     <comment ref="C15" authorId="2" shapeId="0" xr:uid="{701D9FE1-CFF3-4213-B027-4BF309A13523}">
       <text>
-        <t>[스레드 댓글]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
 댓글:
     Visible
 Hidden
 Collapse</t>
+        </r>
       </text>
     </comment>
     <comment ref="C16" authorId="3" shapeId="0" xr:uid="{09E7E630-8538-41C5-A7E3-298AF248E754}">
       <text>
-        <t>[스레드 댓글]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
 댓글:
     Auto
 Number
 Intial</t>
+        </r>
       </text>
     </comment>
     <comment ref="D17" authorId="4" shapeId="0" xr:uid="{DA0F7EBC-711D-40ED-889F-59EFACE091BD}">
       <text>
-        <t>[스레드 댓글]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
 댓글:
     = 
@@ -120,11 +166,21 @@
 ^=
 *=
 $=</t>
+        </r>
       </text>
     </comment>
     <comment ref="B74" authorId="5" shapeId="0" xr:uid="{970C9B8F-90E9-4ED4-B68F-1F67505F85C2}">
       <text>
-        <t>[스레드 댓글]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
 댓글:
     Action
@@ -133,11 +189,21 @@
 Target
 Enctype
 Accept-charset</t>
+        </r>
       </text>
     </comment>
     <comment ref="B75" authorId="6" shapeId="0" xr:uid="{67AE2834-9EF9-42C6-B2B4-E401296AA6DC}">
       <text>
-        <t>[스레드 댓글]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
 댓글:
     Type
@@ -162,39 +228,79 @@
 Button
 Reset
 Submit</t>
+        </r>
       </text>
     </comment>
     <comment ref="B76" authorId="7" shapeId="0" xr:uid="{382B0446-FAF4-4DE5-926D-431412A6CEC7}">
       <text>
-        <t>[스레드 댓글]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
 댓글:
     Name
 Size
 Multiple</t>
+        </r>
       </text>
     </comment>
     <comment ref="B77" authorId="8" shapeId="0" xr:uid="{093B413F-3B6C-4939-A9FD-A0881FF9A808}">
       <text>
-        <t>[스레드 댓글]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
 댓글:
     Value
 Selected
 Disabled</t>
+        </r>
       </text>
     </comment>
     <comment ref="B78" authorId="9" shapeId="0" xr:uid="{41A1055F-F93D-4D98-9249-463639C336FA}">
       <text>
-        <t>[스레드 댓글]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
 댓글:
     Label</t>
+        </r>
       </text>
     </comment>
     <comment ref="B79" authorId="10" shapeId="0" xr:uid="{70A229A7-58A2-43DE-968F-8A03EE35CBE9}">
       <text>
-        <t>[스레드 댓글]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="129"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
 댓글:
     Name
@@ -205,9 +311,10 @@
     Off
 Soft
 Hard</t>
+        </r>
       </text>
     </comment>
-    <comment ref="E89" authorId="11" shapeId="0" xr:uid="{E5A0F95E-0572-47C6-BF9B-459E1F66F4EB}">
+    <comment ref="C89" authorId="11" shapeId="0" xr:uid="{E5A0F95E-0572-47C6-BF9B-459E1F66F4EB}">
       <text>
         <r>
           <rPr>
@@ -244,12 +351,88 @@
         </r>
       </text>
     </comment>
+    <comment ref="B98" authorId="11" shapeId="0" xr:uid="{F6A35CFA-AFA8-400D-A012-CB83BBED93A9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이채윤</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+request.getParameter()
+enum.hasMoreElements()
+enum.nextElement().toString
+request.isRequestedSessionIdValid()
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C98" authorId="11" shapeId="0" xr:uid="{63FC54CB-FDFA-4681-8602-999BBBD0734F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이채윤</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+response.addCookie
+response.getCookies()
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="188">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -916,6 +1099,90 @@
   </si>
   <si>
     <t>getServletContext()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getAttribute(String)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getAttributeNames()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getCreationTime()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getId()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getLastAccessedTime()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getMaxInactiveInterval(int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isNew()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>removeAttribute(String)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>setAttribute(String,Object)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>setMaxInactiveInterval(int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalidate()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>session_innerO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cookie_class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getName()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get/setComment()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get/setDomain()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get/setMaxAge()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get/setPath()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get/setSecure()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get/setValue()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get/setVersion()</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1464,25 +1731,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFD9756C-25D5-4BE5-9A7B-52E6EE334DC5}">
-  <dimension ref="A1:K90"/>
+  <dimension ref="A1:K109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="E81" sqref="E81"/>
+    <sheetView tabSelected="1" topLeftCell="A96" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D106" sqref="D106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.58203125" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="17.625" customWidth="1"/>
     <col min="3" max="3" width="22.75" customWidth="1"/>
     <col min="4" max="4" width="27.5" customWidth="1"/>
-    <col min="5" max="5" width="24.58203125" customWidth="1"/>
-    <col min="6" max="6" width="31.33203125" customWidth="1"/>
+    <col min="5" max="5" width="24.625" customWidth="1"/>
+    <col min="6" max="6" width="31.375" customWidth="1"/>
     <col min="7" max="7" width="18.75" customWidth="1"/>
-    <col min="8" max="8" width="23.33203125" customWidth="1"/>
+    <col min="8" max="8" width="23.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1497,7 +1764,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>8</v>
       </c>
@@ -1505,7 +1772,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -1513,7 +1780,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>10</v>
       </c>
@@ -1521,7 +1788,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>11</v>
       </c>
@@ -1529,7 +1796,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>12</v>
       </c>
@@ -1537,7 +1804,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>13</v>
       </c>
@@ -1545,7 +1812,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>14</v>
       </c>
@@ -1553,7 +1820,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
         <v>0</v>
       </c>
@@ -1570,7 +1837,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1591,7 +1858,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>22</v>
       </c>
@@ -1605,7 +1872,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>23</v>
       </c>
@@ -1619,7 +1886,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>19</v>
       </c>
@@ -1630,7 +1897,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>29</v>
       </c>
@@ -1641,7 +1908,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>20</v>
       </c>
@@ -1652,7 +1919,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>30</v>
       </c>
@@ -1660,12 +1927,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>47</v>
       </c>
@@ -1678,7 +1945,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>48</v>
       </c>
@@ -1707,7 +1974,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>55</v>
       </c>
@@ -1730,7 +1997,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>61</v>
       </c>
@@ -1753,7 +2020,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>67</v>
       </c>
@@ -1776,7 +2043,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>73</v>
       </c>
@@ -1796,7 +2063,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>79</v>
       </c>
@@ -1816,7 +2083,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D39" t="s">
         <v>85</v>
       </c>
@@ -1830,7 +2097,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D40" t="s">
         <v>89</v>
       </c>
@@ -1841,7 +2108,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E41" t="s">
         <v>92</v>
       </c>
@@ -1849,7 +2116,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E42" t="s">
         <v>94</v>
       </c>
@@ -1857,57 +2124,57 @@
         <v>95</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E43" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E44" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E45" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E46" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E47" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E48" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E49" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E50" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E51" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E52" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>107</v>
       </c>
@@ -1928,7 +2195,7 @@
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>147</v>
       </c>
@@ -1939,7 +2206,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>148</v>
       </c>
@@ -1950,7 +2217,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>149</v>
       </c>
@@ -1961,7 +2228,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D60" t="s">
         <v>118</v>
       </c>
@@ -1969,7 +2236,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D61" t="s">
         <v>120</v>
       </c>
@@ -1977,7 +2244,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D62" t="s">
         <v>122</v>
       </c>
@@ -1985,7 +2252,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D63" t="s">
         <v>124</v>
       </c>
@@ -1993,7 +2260,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D64" t="s">
         <v>126</v>
       </c>
@@ -2001,7 +2268,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D65" t="s">
         <v>128</v>
       </c>
@@ -2009,7 +2276,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D66" t="s">
         <v>129</v>
       </c>
@@ -2017,7 +2284,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D67" t="s">
         <v>131</v>
       </c>
@@ -2025,27 +2292,27 @@
         <v>132</v>
       </c>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D68" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D69" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D70" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D71" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B73" s="2" t="s">
         <v>137</v>
       </c>
@@ -2056,113 +2323,212 @@
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="78" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B86" s="2" t="s">
         <v>150</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E86" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="F86" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
         <v>155</v>
       </c>
       <c r="C87" t="s">
-        <v>156</v>
-      </c>
-      <c r="D87" t="s">
-        <v>157</v>
-      </c>
-      <c r="E87" t="s">
         <v>158</v>
       </c>
-      <c r="F87" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
         <v>159</v>
       </c>
       <c r="C88" t="s">
-        <v>160</v>
-      </c>
-      <c r="E88" t="s">
         <v>161</v>
       </c>
-      <c r="F88" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
         <v>163</v>
       </c>
       <c r="C89" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B90" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B91" t="s">
+        <v>156</v>
+      </c>
+      <c r="C91" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C92" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B93" t="s">
         <v>164</v>
       </c>
-      <c r="E89" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C90" t="s">
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B94" t="s">
         <v>166</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B95" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B96" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B98" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B99" t="s">
+        <v>167</v>
+      </c>
+      <c r="C99" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B100" t="s">
+        <v>168</v>
+      </c>
+      <c r="C100" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B101" t="s">
+        <v>169</v>
+      </c>
+      <c r="C101" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B102" t="s">
+        <v>170</v>
+      </c>
+      <c r="C102" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B103" t="s">
+        <v>171</v>
+      </c>
+      <c r="C103" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B104" t="s">
+        <v>172</v>
+      </c>
+      <c r="C104" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B105" t="s">
+        <v>173</v>
+      </c>
+      <c r="C105" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B106" t="s">
+        <v>174</v>
+      </c>
+      <c r="C106" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B107" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B108" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B109" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
